--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Иван\GolandProjects\parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7DD041-99F0-4878-92D0-261E27BA4E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDACAA5-B64A-411F-A8E1-A775E1C646D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24105" yWindow="0" windowWidth="17250" windowHeight="8865" xr2:uid="{7692F8C9-E626-4EA4-BE86-B9D20941FF8D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
   <si>
     <t>ABS</t>
   </si>
@@ -253,6 +253,27 @@
   </si>
   <si>
     <t>Добавлена условность, дост - работает так, что получает из базы данных достоверна или нет. Создал мапу датабейс, потом нужно будет подключать к настоящей базе данных</t>
+  </si>
+  <si>
+    <t>тут имитирую с помощью констант tickspercycle</t>
+  </si>
+  <si>
+    <t>внутри функции вставляю someTask - какая-то функция</t>
+  </si>
+  <si>
+    <t>не понял как реализовать в винде</t>
+  </si>
+  <si>
+    <t>есть условность с AOUT и dout</t>
+  </si>
+  <si>
+    <t>не понял какие формулы в функции, также нужен доступ к бд для переменных</t>
+  </si>
+  <si>
+    <t>нужен протокол по которому будет производиться отправка значения</t>
+  </si>
+  <si>
+    <t>непонятно какие файлы, в го нужно какие-то определенные файлы</t>
   </si>
 </sst>
 </file>
@@ -607,11 +628,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFE58A0-577F-4473-A520-AFA69FD4A195}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -915,165 +939,246 @@
       <c r="A39" t="s">
         <v>38</v>
       </c>
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
+      <c r="B40" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
+      <c r="B41" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
+      <c r="B44" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
+      <c r="B45" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
